--- a/fujian/donate2wuhan.xlsx
+++ b/fujian/donate2wuhan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\Donate2Wuhan\content\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38EF041F-F463-4CEB-AF62-12D3B04C5517}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86240CC7-1FC8-4EE1-9887-AF2D54F1D891}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2960" yWindow="1120" windowWidth="18690" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="870" yWindow="660" windowWidth="18690" windowHeight="12820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,9 +148,6 @@
     <t>小鱼</t>
   </si>
   <si>
-    <t>市四院河南大学医疗支援队</t>
-  </si>
-  <si>
     <t>前线任意有需求的医院。</t>
   </si>
   <si>
@@ -194,15 +191,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>武汉大学人民医院麻醉科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江汉区解放大道协和医院内科2号楼内分泌科</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武汉市江汉区解放大道协和医院内科2号楼内分泌科</t>
+    <t>武汉大学人民医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市四院河南大学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江汉区解放大道协和医院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武汉市江汉区解放大道协和医院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,7 +535,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -600,13 +601,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -615,7 +616,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -623,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>23</v>
@@ -638,7 +639,7 @@
         <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -655,7 +656,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -663,13 +664,13 @@
         <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -686,13 +687,13 @@
         <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>25</v>
@@ -718,7 +719,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -732,10 +733,10 @@
         <v>19</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -752,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -760,13 +761,13 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>26</v>
